--- a/interface/vbcode/02 Insert mrl items procedure/MRL.xlsx
+++ b/interface/vbcode/02 Insert mrl items procedure/MRL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lambe\V2X-ExtLogDB\interface\vbcode\insert mrl items procedure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vse\Desktop\External Logistics Database\ExtLogisticsDB Github Repository\V2X-ExtLogDB\interface\vbcode\02 Insert mrl items procedure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83FD120-39BB-4C99-8BA0-9C92277B28A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0240DBE-0864-4992-8A16-549FFB07F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B9455ED-8A26-4DAB-BC15-0F8CFB1181B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{9B9455ED-8A26-4DAB-BC15-0F8CFB1181B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,12 +205,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,9 +230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -269,7 +270,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -375,7 +376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,7 +518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,7 +529,7 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +544,7 @@
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="1"/>
@@ -597,7 +598,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -686,7 +687,7 @@
       <c r="K2" s="3">
         <v>300</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="M2" s="4">
